--- a/QuanLyChiTieu/Data/kikaho/Accounts.xlsx
+++ b/QuanLyChiTieu/Data/kikaho/Accounts.xlsx
@@ -16,16 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>abcd3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thẻ ngân hàng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abcd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiền mặt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tên tài khoản</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
     <x:t>Số dư</x:t>
   </x:si>
   <x:si>
-    <x:t>Tên tài khoản</x:t>
-  </x:si>
-  <x:si>
     <x:t>kikaho</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
+    <x:t>Loại thẻ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cxz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>423</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -376,26 +400,65 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B1"/>
+  <x:dimension ref="A1:C1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QuanLyChiTieu/Data/kikaho/Accounts.xlsx
+++ b/QuanLyChiTieu/Data/kikaho/Accounts.xlsx
@@ -16,40 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>abcd3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thẻ ngân hàng</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abcd</x:t>
+    <x:t>Ví điện tử</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kikaho</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tên tài khoản</x:t>
   </x:si>
   <x:si>
     <x:t>Tiền mặt</x:t>
   </x:si>
   <x:si>
-    <x:t>Tên tài khoản</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
+    <x:t>Loại thẻ</x:t>
   </x:si>
   <x:si>
     <x:t>Số dư</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kikaho</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loại thẻ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cxz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>423</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -411,21 +402,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -433,32 +424,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QuanLyChiTieu/Data/kikaho/Accounts.xlsx
+++ b/QuanLyChiTieu/Data/kikaho/Accounts.xlsx
@@ -19,28 +19,37 @@
     <x:t>Ví điện tử</x:t>
   </x:si>
   <x:si>
-    <x:t>12</x:t>
+    <x:t>122300787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abcde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiền mặt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
   </x:si>
   <x:si>
     <x:t>kikaho</x:t>
   </x:si>
   <x:si>
-    <x:t>abc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
+    <x:t>Loại thẻ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Số dư</x:t>
   </x:si>
   <x:si>
     <x:t>Tên tài khoản</x:t>
   </x:si>
   <x:si>
-    <x:t>Tiền mặt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loại thẻ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Số dư</x:t>
+    <x:t>zcx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thẻ ngân hàng</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -399,35 +408,46 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QuanLyChiTieu/Data/kikaho/Accounts.xlsx
+++ b/QuanLyChiTieu/Data/kikaho/Accounts.xlsx
@@ -16,6 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>Thẻ ngân hàng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zcx</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ví điện tử</x:t>
   </x:si>
   <x:si>
@@ -41,15 +50,6 @@
   </x:si>
   <x:si>
     <x:t>Tên tài khoản</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zcx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thẻ ngân hàng</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -408,46 +408,46 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
